--- a/RESULTS/segformer_loss_function.xlsx
+++ b/RESULTS/segformer_loss_function.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mgr\teeth_segment\RESULTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF0562-D001-456D-806B-94A24B5AC750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112215CA-74FF-4D56-9F66-7DB049CFCA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="loss_function" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Accuracy</t>
   </si>
@@ -45,28 +45,25 @@
     <t>Jaccard Index</t>
   </si>
   <si>
-    <t>Loss Funcion</t>
+    <t>loss_function</t>
+  </si>
+  <si>
+    <t>BCEWithLogitsLoss</t>
+  </si>
+  <si>
+    <t>IoULoss</t>
+  </si>
+  <si>
+    <t>TverskyLoss</t>
+  </si>
+  <si>
+    <t>FocalLoss</t>
   </si>
   <si>
     <t>CrossEntropyLoss</t>
   </si>
   <si>
     <t>DiceLoss</t>
-  </si>
-  <si>
-    <t>BCEWithLogitsLoss</t>
-  </si>
-  <si>
-    <t>IoULoss</t>
-  </si>
-  <si>
-    <t>TverskyLoss</t>
-  </si>
-  <si>
-    <t>FocalLoss</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>kombinacja BCE + Dice</t>
@@ -76,9 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -417,20 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -451,174 +447,171 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.96812505103707325</v>
+      </c>
+      <c r="C2">
+        <v>0.89091904893278029</v>
+      </c>
+      <c r="D2">
+        <v>0.84401244442462731</v>
+      </c>
+      <c r="E2">
+        <v>0.8657022344544496</v>
+      </c>
+      <c r="F2">
+        <v>0.8522987785809889</v>
+      </c>
+      <c r="G2">
+        <v>0.77106067684072677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.95415855389855198</v>
+      </c>
+      <c r="C3">
+        <v>0.84416336411181303</v>
+      </c>
+      <c r="D3">
+        <v>0.8140241119944237</v>
+      </c>
+      <c r="E3">
+        <v>0.82419176587050125</v>
+      </c>
+      <c r="F3">
+        <v>0.81708459073746731</v>
+      </c>
+      <c r="G3">
+        <v>0.70574166518930992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.96812505103707325</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.89091904893278029</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.84401244442462731</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.8657022344544496</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.8522987785809889</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.77106067684072677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0.94580881427268759</v>
+      </c>
+      <c r="C4">
+        <v>0.91666168271724191</v>
+      </c>
+      <c r="D4">
+        <v>0.64883547555699284</v>
+      </c>
+      <c r="E4">
+        <v>0.75505264252312021</v>
+      </c>
+      <c r="F4">
+        <v>0.68688728694076484</v>
+      </c>
+      <c r="G4">
+        <v>0.61463527621096203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.95415855389855198</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.84416336411181303</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.8140241119944237</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.82419176587050125</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.81708459073746731</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.70574166518930992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0.94986861143434587</v>
+      </c>
+      <c r="C5">
+        <v>0.7914110067330149</v>
+      </c>
+      <c r="D5">
+        <v>0.83767518024176357</v>
+      </c>
+      <c r="E5">
+        <v>0.80602123009728843</v>
+      </c>
+      <c r="F5">
+        <v>0.82299723255356538</v>
+      </c>
+      <c r="G5">
+        <v>0.68516314162844405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.94580881427268759</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.91666168271724191</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.64883547555699284</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.75505264252312021</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.68688728694076484</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.61463527621096203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0.94798312118923178</v>
+      </c>
+      <c r="C6">
+        <v>0.81918730256267036</v>
+      </c>
+      <c r="D6">
+        <v>0.770119698152677</v>
+      </c>
+      <c r="E6">
+        <v>0.78778263424635642</v>
+      </c>
+      <c r="F6">
+        <v>0.77591371164180856</v>
+      </c>
+      <c r="G6">
+        <v>0.65946971810578314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.94986861143434587</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.7914110067330149</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.83767518024176357</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.80602123009728843</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.82299723255356538</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.68516314162844405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.94798312118923178</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.81918730256267036</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.770119698152677</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.78778263424635642</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.77591371164180856</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.65946971810578314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0.95089117109668453</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0.79353259138383403</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0.8344325049804967</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0.81008334928906645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>0.82367332695994988</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>0.68888352165736344</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>0.95147656632778055</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.86732789460859883</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0.72726325915769174</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>0.78572798658227505</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>0.74863804992964655</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>0.65739820670573856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>